--- a/map-data/personal-datasets/XLSX/tribalCrimeBJS-KEY.xlsx
+++ b/map-data/personal-datasets/XLSX/tribalCrimeBJS-KEY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\DIGIT\GitHub\NativeGone\map-data\personal-datasets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B55A4B7-4912-46DB-AB63-FC79DDB8ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA57982-1697-4BA2-8CB1-67AC02F7953F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4AE74100-9458-4A33-803F-2634D59DAEE7}"/>
+    <workbookView xWindow="38280" yWindow="-1500" windowWidth="29040" windowHeight="15840" xr2:uid="{4AE74100-9458-4A33-803F-2634D59DAEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87D380-8255-4D94-8D9D-F0734297A62F}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171D981-AFEE-4D2F-9B59-39AB57845B06}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <f>F2+G2</f>
+        <f t="shared" ref="H2:H33" si="0">F2+G2</f>
         <v>10</v>
       </c>
       <c r="I2">
@@ -1237,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="H3">
-        <f>F3+G3</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I3">
@@ -1264,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="H4">
-        <f>F4+G4</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I4">
@@ -1291,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <f>F5+G5</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I5">
@@ -1318,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="H6">
-        <f>F6+G6</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I6">
@@ -1345,7 +1345,7 @@
         <v>13</v>
       </c>
       <c r="H7">
-        <f>F7+G7</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I7">
@@ -1372,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="H8">
-        <f>F8+G8</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I8">
@@ -1399,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <f>F9+G9</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I9">
@@ -1426,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <f>F10+G10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I10">
@@ -1453,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <f>F11+G11</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I11">
@@ -1480,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="H12">
-        <f>F12+G12</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I12">
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>F13+G13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f>F14+G14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14">
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <f>F15+G15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I15">
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f>F16+G16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16">
@@ -1615,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <f>F17+G17</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I17">
@@ -1642,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <f>F18+G18</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I18">
@@ -1669,7 +1669,7 @@
         <v>4</v>
       </c>
       <c r="H19">
-        <f>F19+G19</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I19">
@@ -1696,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <f>F20+G20</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I20">
@@ -1723,7 +1723,7 @@
         <v>6</v>
       </c>
       <c r="H21">
-        <f>F21+G21</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I21">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <f>F22+G22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I22">
@@ -1777,7 +1777,7 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <f>F23+G23</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I23">
@@ -1804,7 +1804,7 @@
         <v>15</v>
       </c>
       <c r="H24">
-        <f>F24+G24</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I24">
@@ -1831,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <f>F25+G25</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I25">
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <f>F26+G26</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I26">
@@ -1885,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <f>F27+G27</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I27">
@@ -1912,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="H28">
-        <f>F28+G28</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I28">
@@ -1939,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <f>F29+G29</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I29">
@@ -1966,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <f>F30+G30</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I30">
@@ -1993,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="H31">
-        <f>F31+G31</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I31">
@@ -2020,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <f>F32+G32</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I32">
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <f>F33+G33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I33">
@@ -2074,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <f>F34+G34</f>
+        <f t="shared" ref="H34:H65" si="1">F34+G34</f>
         <v>1</v>
       </c>
       <c r="I34">
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <f>F35+G35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35">
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f>F36+G36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <f>F37+G37</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I37">
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <f>F38+G38</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I38">
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <f>F39+G39</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I39">
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <f>F40+G40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40">
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f>F41+G41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41">
@@ -2290,7 +2290,7 @@
         <v>7</v>
       </c>
       <c r="H42">
-        <f>F42+G42</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I42">
@@ -2317,7 +2317,7 @@
         <v>7</v>
       </c>
       <c r="H43">
-        <f>F43+G43</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I43">
@@ -2344,7 +2344,7 @@
         <v>12</v>
       </c>
       <c r="H44">
-        <f>F44+G44</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I44">
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="H45">
-        <f>F45+G45</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I45">
@@ -2398,7 +2398,7 @@
         <v>8</v>
       </c>
       <c r="H46">
-        <f>F46+G46</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I46">
@@ -2425,7 +2425,7 @@
         <v>7</v>
       </c>
       <c r="H47">
-        <f>F47+G47</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I47">
@@ -2452,7 +2452,7 @@
         <v>7</v>
       </c>
       <c r="H48">
-        <f>F48+G48</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I48">
@@ -2479,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="H49">
-        <f>F49+G49</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I49">
@@ -2506,7 +2506,7 @@
         <v>6</v>
       </c>
       <c r="H50">
-        <f>F50+G50</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I50">
@@ -2533,7 +2533,7 @@
         <v>8</v>
       </c>
       <c r="H51">
-        <f>F51+G51</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I51">
@@ -2560,7 +2560,7 @@
         <v>20</v>
       </c>
       <c r="H52">
-        <f>F52+G52</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I52">
@@ -2587,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="H53">
-        <f>F53+G53</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I53">
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <f>F54+G54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I54">
@@ -2641,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="H55">
-        <f>F55+G55</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I55">
@@ -2668,7 +2668,7 @@
         <v>17</v>
       </c>
       <c r="H56">
-        <f>F56+G56</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I56">
@@ -2695,7 +2695,7 @@
         <v>18</v>
       </c>
       <c r="H57">
-        <f>F57+G57</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I57">
@@ -2722,7 +2722,7 @@
         <v>7</v>
       </c>
       <c r="H58">
-        <f>F58+G58</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I58">
@@ -2749,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="H59">
-        <f>F59+G59</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I59">
@@ -2776,7 +2776,7 @@
         <v>5</v>
       </c>
       <c r="H60">
-        <f>F60+G60</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I60">
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <f>F61+G61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I61">
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <f>F62+G62</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I62">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <f>F63+G63</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I63">
@@ -2884,7 +2884,7 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <f>F64+G64</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I64">

--- a/map-data/personal-datasets/XLSX/tribalCrimeBJS-KEY.xlsx
+++ b/map-data/personal-datasets/XLSX/tribalCrimeBJS-KEY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\DIGIT\GitHub\NativeGone\map-data\personal-datasets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA57982-1697-4BA2-8CB1-67AC02F7953F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39850F9A-4DDA-493C-84FD-9F38C3BBA2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-1500" windowWidth="29040" windowHeight="15840" xr2:uid="{4AE74100-9458-4A33-803F-2634D59DAEE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4AE74100-9458-4A33-803F-2634D59DAEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="50">
   <si>
     <t>Tribe/Agency</t>
   </si>
@@ -564,584 +564,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87D380-8255-4D94-8D9D-F0734297A62F}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
         <v>48.556917400000003</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>-113.0134175</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
         <v>44.9886537</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>-101.2224805</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2">
         <v>45.604141400000003</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>-107.4645278</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.875</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>0.875</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
         <v>44.068601000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>-99.437884600000004</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.75</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
         <v>44.043509455733499</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-96.603184387447499</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
         <v>47.628007998691899</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-114.115353414095</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
         <v>46.713569298605499</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-92.516085482087803</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.25</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2">
         <v>48.533330900000003</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>-108.7840463</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2">
         <v>47.980848299999998</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>-102.4901804</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2">
         <v>48.122236000000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>-105.183425</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.875</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>0.875</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2">
         <v>47.979998600000002</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>-98.992900500000005</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
         <v>47.984936478305798</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-98.994198454415994</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.125</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
         <v>47.384109616414896</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-94.601092081257704</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2">
         <v>44.0748794</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>-99.580080899999999</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.75</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
         <v>44.532707621665097</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-94.995835527161105</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
         <v>46.178536344161401</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-93.754949868211398</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
         <v>48.113402491235803</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-93.096071201339896</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
         <v>45.6230476</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>-106.6666984</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.875</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>0.875</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
         <v>43.026244115782703</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-102.557561839858</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
         <v>45.227353405923097</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-67.577096151310698</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
         <v>44.965800096570099</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-67.0645559156698</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.125</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2">
         <v>43.025540800000002</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>-102.5562743</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2">
         <v>47.876345999999998</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>-95.016940099999999</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2">
         <v>48.320394999999998</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>-110.19352019999999</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2">
         <v>43.305836800000002</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>-100.6581944</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2">
         <v>45.565818999999998</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>-97.065658600000006</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.375</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2">
         <v>46.086940800000001</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>-100.6301271</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.625</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>0.625</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
         <v>47.981409768372302</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-102.579438102213</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2">
         <v>48.839171200000003</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>-99.744868800000006</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31">
         <v>44.763145746391103</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-95.512223337896401</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
         <v>46.973120527079601</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-95.865281895042301</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2">
         <v>43.0797156</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>-98.293134199999997</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1149,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171D981-AFEE-4D2F-9B59-39AB57845B06}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2074,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="1">F34+G34</f>
+        <f t="shared" ref="H34:H64" si="1">F34+G34</f>
         <v>1</v>
       </c>
       <c r="I34">
